--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -43,13 +43,13 @@
     <x:t>Date as Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>02.09.2010 0:00:00</x:t>
+    <x:t>9/2/2010 12:00:00 AM</x:t>
   </x:si>
   <x:si>
     <x:t>DateTime as Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>02.09.2010 13:45:22</x:t>
+    <x:t>9/2/2010 1:45:22 PM</x:t>
   </x:si>
   <x:si>
     <x:t>Boolean as Text:</x:t>
@@ -88,7 +88,7 @@
     <x:t>DateTime to Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>9.2.10 1:45</x:t>
+    <x:t>9/2/10 1:45</x:t>
   </x:si>
   <x:si>
     <x:t>Boolean to Text:</x:t>
@@ -127,7 +127,7 @@
     <x:t>Formatted Number to Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>12 345.68</x:t>
+    <x:t>12,345.68</x:t>
   </x:si>
   <x:si>
     <x:t>Blank Text:</x:t>
@@ -538,7 +538,7 @@
     <x:col min="4" max="16384" width="9.850625" style="0" customWidth="1"/>
     <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.98" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.7" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.7" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -533,12 +533,11 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="4" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.98" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.7" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -182,7 +182,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -204,8 +204,29 @@
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -232,6 +253,34 @@
     </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -541,237 +590,237 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="7" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B3" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="1">
+      <x:c r="C3" s="8">
         <x:v>40423</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C4" s="2">
+      <x:c r="C4" s="9">
         <x:v>40423.5731712963</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B5" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="b">
+      <x:c r="C5" s="7" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="7" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B7" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C7" s="3" t="n">
+      <x:c r="C7" s="10" t="n">
         <x:v>1.40650462962963</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="B9" s="0" t="s">
+      <x:c r="B9" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="B10" s="0" t="s">
+      <x:c r="B10" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="B11" s="0" t="s">
+      <x:c r="B11" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
-      <x:c r="B12" s="0" t="s">
+      <x:c r="B12" s="7" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="7" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
-      <x:c r="B13" s="0" t="s">
+      <x:c r="B13" s="7" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="7" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
-      <x:c r="B14" s="0" t="s">
+      <x:c r="B14" s="7" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C14" s="4" t="s">
+      <x:c r="C14" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
-      <x:c r="B15" s="0" t="s">
+      <x:c r="B15" s="7" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C15" s="4" t="n">
+      <x:c r="C15" s="11" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
-      <x:c r="B16" s="0" t="s">
+      <x:c r="B16" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="7" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
-      <x:c r="B18" s="0" t="s">
+      <x:c r="B18" s="7" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
-      <x:c r="B20" s="0" t="s">
+      <x:c r="B20" s="7" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C20" s="1" t="s">
+      <x:c r="C20" s="8" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
-      <x:c r="B21" s="0" t="s">
+      <x:c r="B21" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="C21" s="9" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
-      <x:c r="B22" s="0" t="s">
+      <x:c r="B22" s="7" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="7" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
-      <x:c r="B23" s="0" t="s">
+      <x:c r="B23" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="7" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
-      <x:c r="B24" s="0" t="s">
+      <x:c r="B24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C24" s="3" t="s">
+      <x:c r="C24" s="10" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
-      <x:c r="B25" s="0" t="s">
+      <x:c r="B25" s="7" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C25" s="1">
+      <x:c r="C25" s="8">
         <x:v>40423</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
-      <x:c r="B26" s="0" t="s">
+      <x:c r="B26" s="7" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C26" s="2">
+      <x:c r="C26" s="9">
         <x:v>40423.5731712963</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
-      <x:c r="B27" s="0" t="s">
+      <x:c r="B27" s="7" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="b">
+      <x:c r="C27" s="7" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
-      <x:c r="B28" s="0" t="s">
+      <x:c r="B28" s="7" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="n">
+      <x:c r="C28" s="7" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
-      <x:c r="B29" s="0" t="s">
+      <x:c r="B29" s="7" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C29" s="4" t="n">
+      <x:c r="C29" s="11" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
-      <x:c r="B30" s="0" t="s">
+      <x:c r="B30" s="7" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C30" s="3" t="n">
+      <x:c r="C30" s="10" t="n">
         <x:v>1.40650462962963</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
-      <x:c r="B32" s="0" t="s">
+      <x:c r="B32" s="7" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C32" s="5" t="s">
+      <x:c r="C32" s="12" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
-      <x:c r="B33" s="0" t="s">
+      <x:c r="B33" s="7" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C33" s="6" t="s">
+      <x:c r="C33" s="13" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
-      <x:c r="B35" s="0" t="s">
+      <x:c r="B35" s="7" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C35" s="6" t="s"/>
+      <x:c r="C35" s="13" t="s"/>
     </x:row>
     <x:row r="37" spans="1:3">
-      <x:c r="B37" s="0" t="s">
+      <x:c r="B37" s="7" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C37" s="0" t="inlineStr">
+      <x:c r="C37" s="7" t="inlineStr">
         <x:is>
           <x:t>Not Shared</x:t>
         </x:is>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -82,13 +82,13 @@
     <x:t>Date to Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>09-02-10</x:t>
+    <x:t>40423</x:t>
   </x:si>
   <x:si>
     <x:t>DateTime to Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>9/2/10 1:45</x:t>
+    <x:t>40423.5731712963</x:t>
   </x:si>
   <x:si>
     <x:t>Boolean to Text:</x:t>
@@ -100,6 +100,9 @@
     <x:t>TimeSpan to Text:</x:t>
   </x:si>
   <x:si>
+    <x:t>1.40650462962963</x:t>
+  </x:si>
+  <x:si>
     <x:t>Text to Date:</x:t>
   </x:si>
   <x:si>
@@ -121,13 +124,10 @@
     <x:t>Formatted Date to Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>2010-09-02</x:t>
-  </x:si>
-  <x:si>
     <x:t>Formatted Number to Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>12,345.68</x:t>
+    <x:t>12345.6789</x:t>
   </x:si>
   <x:si>
     <x:t>Blank Text:</x:t>
@@ -743,12 +743,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C24" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="B25" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C25" s="8">
         <x:v>40423</x:v>
@@ -756,7 +756,7 @@
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="B26" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C26" s="9">
         <x:v>40423.5731712963</x:v>
@@ -764,7 +764,7 @@
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="B27" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="7" t="b">
         <x:v>1</x:v>
@@ -772,7 +772,7 @@
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="B28" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C28" s="7" t="n">
         <x:v>123.45</x:v>
@@ -780,7 +780,7 @@
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="B29" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C29" s="11" t="n">
         <x:v>123.45</x:v>
@@ -788,7 +788,7 @@
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="B30" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C30" s="10" t="n">
         <x:v>1.40650462962963</x:v>
@@ -796,10 +796,10 @@
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="B32" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C32" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -578,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C37"/>
+  <x:dimension ref="A1:C38"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -825,6 +825,9 @@
           <x:t>Not Shared</x:t>
         </x:is>
       </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="B38" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -182,7 +182,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -204,29 +204,8 @@
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -253,34 +232,6 @@
     </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -590,244 +541,244 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">
-      <x:c r="B2" s="7" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="B3" s="7" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="8">
+      <x:c r="C3" s="1">
         <x:v>40423</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="B4" s="7" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C4" s="9">
+      <x:c r="C4" s="2">
         <x:v>40423.5731712963</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="B5" s="7" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C5" s="7" t="b">
+      <x:c r="C5" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="B6" s="7" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C6" s="7" t="n">
+      <x:c r="C6" s="0" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="B7" s="7" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C7" s="10" t="n">
+      <x:c r="C7" s="3" t="n">
         <x:v>1.40650462962963</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="B9" s="7" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C9" s="7" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="B10" s="7" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C10" s="7" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="B11" s="7" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C11" s="7" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
-      <x:c r="B12" s="7" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C12" s="7" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
-      <x:c r="B13" s="7" t="s">
+      <x:c r="B13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C13" s="7" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
-      <x:c r="B14" s="7" t="s">
+      <x:c r="B14" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C14" s="11" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
-      <x:c r="B15" s="7" t="s">
+      <x:c r="B15" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C15" s="11" t="n">
+      <x:c r="C15" s="4" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
-      <x:c r="B16" s="7" t="s">
+      <x:c r="B16" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C16" s="7" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
-      <x:c r="B18" s="7" t="s">
+      <x:c r="B18" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
-      <x:c r="B20" s="7" t="s">
+      <x:c r="B20" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C20" s="8" t="s">
+      <x:c r="C20" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
-      <x:c r="B21" s="7" t="s">
+      <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C21" s="9" t="s">
+      <x:c r="C21" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
-      <x:c r="B22" s="7" t="s">
+      <x:c r="B22" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C22" s="7" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
-      <x:c r="B23" s="7" t="s">
+      <x:c r="B23" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C23" s="7" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
-      <x:c r="B24" s="7" t="s">
+      <x:c r="B24" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C24" s="10" t="s">
+      <x:c r="C24" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
-      <x:c r="B25" s="7" t="s">
+      <x:c r="B25" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C25" s="8">
+      <x:c r="C25" s="1">
         <x:v>40423</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
-      <x:c r="B26" s="7" t="s">
+      <x:c r="B26" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C26" s="9">
+      <x:c r="C26" s="2">
         <x:v>40423.5731712963</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
-      <x:c r="B27" s="7" t="s">
+      <x:c r="B27" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C27" s="7" t="b">
+      <x:c r="C27" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
-      <x:c r="B28" s="7" t="s">
+      <x:c r="B28" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C28" s="7" t="n">
+      <x:c r="C28" s="0" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
-      <x:c r="B29" s="7" t="s">
+      <x:c r="B29" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C29" s="11" t="n">
+      <x:c r="C29" s="4" t="n">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
-      <x:c r="B30" s="7" t="s">
+      <x:c r="B30" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C30" s="10" t="n">
+      <x:c r="C30" s="3" t="n">
         <x:v>1.40650462962963</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
-      <x:c r="B32" s="7" t="s">
+      <x:c r="B32" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C32" s="12" t="s">
+      <x:c r="C32" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
-      <x:c r="B33" s="7" t="s">
+      <x:c r="B33" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C33" s="13" t="s">
+      <x:c r="C33" s="6" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
-      <x:c r="B35" s="7" t="s">
+      <x:c r="B35" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C35" s="13" t="s"/>
+      <x:c r="C35" s="6" t="s"/>
     </x:row>
     <x:row r="37" spans="1:3">
-      <x:c r="B37" s="7" t="s">
+      <x:c r="B37" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C37" s="7" t="inlineStr">
+      <x:c r="C37" s="0" t="inlineStr">
         <x:is>
           <x:t>Not Shared</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
-      <x:c r="B38" s="7" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -784,14 +784,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -536,8 +536,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="27.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -536,8 +536,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="27.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="27.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -536,8 +536,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="27.10125" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -146,7 +146,14 @@
     <x:numFmt numFmtId="2" formatCode="yyyy-MM-dd"/>
     <x:numFmt numFmtId="3" formatCode="#,##0.00"/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -538,7 +538,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C38"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -543,8 +543,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.320625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -190,54 +190,54 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="7">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="7">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -784,9 +784,7 @@
         </x:is>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:3">
-      <x:c r="B38" s="0" t="s"/>
-    </x:row>
+    <x:row r="38" spans="1:3"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -142,9 +142,9 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="4">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="@"/>
-    <x:numFmt numFmtId="2" formatCode="yyyy-MM-dd"/>
-    <x:numFmt numFmtId="3" formatCode="#,##0.00"/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
+    <x:numFmt numFmtId="166" formatCode="yyyy-MM-dd"/>
+    <x:numFmt numFmtId="167" formatCode="#,##0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -202,13 +202,13 @@
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -229,15 +229,15 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
